--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H2">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I2">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J2">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N2">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O2">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P2">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q2">
-        <v>340.239658722425</v>
+        <v>369.0291662381367</v>
       </c>
       <c r="R2">
-        <v>3062.156928501825</v>
+        <v>3321.26249614323</v>
       </c>
       <c r="S2">
-        <v>0.002209679985306129</v>
+        <v>0.00112974927771894</v>
       </c>
       <c r="T2">
-        <v>0.002232631170439998</v>
+        <v>0.001143329280822569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H3">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I3">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J3">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P3">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q3">
-        <v>371.2608719565899</v>
+        <v>390.4377805260847</v>
       </c>
       <c r="R3">
-        <v>3341.34784760931</v>
+        <v>3513.940024734762</v>
       </c>
       <c r="S3">
-        <v>0.002411146664002071</v>
+        <v>0.001195289806060716</v>
       </c>
       <c r="T3">
-        <v>0.002436190414155221</v>
+        <v>0.001209657630494129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H4">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I4">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J4">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N4">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O4">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P4">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q4">
-        <v>2568.051298671705</v>
+        <v>3647.33794254445</v>
       </c>
       <c r="R4">
-        <v>23112.46168804534</v>
+        <v>32826.04148290004</v>
       </c>
       <c r="S4">
-        <v>0.01667816026274502</v>
+        <v>0.01116599386490618</v>
       </c>
       <c r="T4">
-        <v>0.01685139057049457</v>
+        <v>0.01130021323050443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H5">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I5">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J5">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N5">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O5">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P5">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q5">
-        <v>55.8579425301975</v>
+        <v>136.7842291925982</v>
       </c>
       <c r="R5">
-        <v>335.147655181185</v>
+        <v>820.7053751555891</v>
       </c>
       <c r="S5">
-        <v>0.0003627683442101404</v>
+        <v>0.0004187524951183923</v>
       </c>
       <c r="T5">
-        <v>0.0002443575293913758</v>
+        <v>0.000282524036396848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H6">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I6">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J6">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N6">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O6">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P6">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q6">
-        <v>2668.95240733814</v>
+        <v>3358.006701006084</v>
       </c>
       <c r="R6">
-        <v>24020.57166604326</v>
+        <v>30222.06030905476</v>
       </c>
       <c r="S6">
-        <v>0.01733346059179137</v>
+        <v>0.01028023254560016</v>
       </c>
       <c r="T6">
-        <v>0.01751349727841489</v>
+        <v>0.01040380473336659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J7">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N7">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O7">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P7">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q7">
-        <v>1121.240911359782</v>
+        <v>1156.38390577523</v>
       </c>
       <c r="R7">
-        <v>10091.16820223804</v>
+        <v>10407.45515197707</v>
       </c>
       <c r="S7">
-        <v>0.007281877750057877</v>
+        <v>0.003540164306341927</v>
       </c>
       <c r="T7">
-        <v>0.007357512106831322</v>
+        <v>0.003582718387336382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J8">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P8">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q8">
         <v>1223.469597835562</v>
@@ -948,10 +948,10 @@
         <v>11011.22638052006</v>
       </c>
       <c r="S8">
-        <v>0.007945800007909527</v>
+        <v>0.003745541059954749</v>
       </c>
       <c r="T8">
-        <v>0.008028330296562599</v>
+        <v>0.003790563845294922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J9">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N9">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O9">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P9">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q9">
-        <v>8462.870522952218</v>
+        <v>11429.23996679444</v>
       </c>
       <c r="R9">
-        <v>76165.83470656996</v>
+        <v>102863.15970115</v>
       </c>
       <c r="S9">
-        <v>0.05496195147568258</v>
+        <v>0.03498958017055529</v>
       </c>
       <c r="T9">
-        <v>0.05553282234025367</v>
+        <v>0.03541016783250998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J10">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N10">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O10">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P10">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q10">
-        <v>184.0767493842805</v>
+        <v>428.6248775797835</v>
       </c>
       <c r="R10">
-        <v>1104.460496305683</v>
+        <v>2571.749265478701</v>
       </c>
       <c r="S10">
-        <v>0.001195482943998874</v>
+        <v>0.001312196135591211</v>
       </c>
       <c r="T10">
-        <v>0.000805266675793173</v>
+        <v>0.0008853128114896609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J11">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N11">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O11">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P11">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q11">
-        <v>8795.384526355519</v>
+        <v>10522.59620591342</v>
       </c>
       <c r="R11">
-        <v>79158.46073719968</v>
+        <v>94703.36585322079</v>
       </c>
       <c r="S11">
-        <v>0.05712145733961749</v>
+        <v>0.03221397263675201</v>
       </c>
       <c r="T11">
-        <v>0.05771475824800054</v>
+        <v>0.03260119647217732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H12">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I12">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J12">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N12">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O12">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P12">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q12">
-        <v>3785.06983854531</v>
+        <v>5465.43389309131</v>
       </c>
       <c r="R12">
-        <v>34065.62854690779</v>
+        <v>49188.90503782179</v>
       </c>
       <c r="S12">
-        <v>0.02458206399755073</v>
+        <v>0.01673192950054261</v>
       </c>
       <c r="T12">
-        <v>0.02483738943179104</v>
+        <v>0.01693305346585803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H13">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I13">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J13">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P13">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q13">
-        <v>4130.17204975906</v>
+        <v>5782.501964773113</v>
       </c>
       <c r="R13">
-        <v>37171.54844783154</v>
+        <v>52042.51768295803</v>
       </c>
       <c r="S13">
-        <v>0.02682332373742729</v>
+        <v>0.01770260460631216</v>
       </c>
       <c r="T13">
-        <v>0.02710192836483813</v>
+        <v>0.01791539644449897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H14">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I14">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J14">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N14">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O14">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P14">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q14">
-        <v>28568.8433586438</v>
+        <v>54018.18131057057</v>
       </c>
       <c r="R14">
-        <v>257119.5902277942</v>
+        <v>486163.6317951352</v>
       </c>
       <c r="S14">
-        <v>0.1855398092332391</v>
+        <v>0.1653717562257037</v>
       </c>
       <c r="T14">
-        <v>0.1874669473436134</v>
+        <v>0.1673595857442426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H15">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I15">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J15">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N15">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O15">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P15">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q15">
-        <v>621.4037902228617</v>
+        <v>2025.8159263953</v>
       </c>
       <c r="R15">
-        <v>3728.42274133717</v>
+        <v>12154.8955583718</v>
       </c>
       <c r="S15">
-        <v>0.004035695083885073</v>
+        <v>0.006201851476855156</v>
       </c>
       <c r="T15">
-        <v>0.002718408306056138</v>
+        <v>0.004184266679723272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H16">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I16">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J16">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N16">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O16">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P16">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q16">
-        <v>29691.33961473334</v>
+        <v>49733.09785780757</v>
       </c>
       <c r="R16">
-        <v>267222.0565326001</v>
+        <v>447597.8807202681</v>
       </c>
       <c r="S16">
-        <v>0.1928298397957423</v>
+        <v>0.1522533624004297</v>
       </c>
       <c r="T16">
-        <v>0.1948326969433457</v>
+        <v>0.1540835039855701</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H17">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I17">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J17">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N17">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O17">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P17">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q17">
-        <v>188.4962214301675</v>
+        <v>281.129556414035</v>
       </c>
       <c r="R17">
-        <v>1130.977328581005</v>
+        <v>1686.77733848421</v>
       </c>
       <c r="S17">
-        <v>0.001224185121052794</v>
+        <v>0.0008606526051635959</v>
       </c>
       <c r="T17">
-        <v>0.0008246002069156876</v>
+        <v>0.000580665311325573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H18">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I18">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J18">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P18">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q18">
-        <v>205.6822881596489</v>
+        <v>297.438820799729</v>
       </c>
       <c r="R18">
-        <v>1234.093728957894</v>
+        <v>1784.632924798374</v>
       </c>
       <c r="S18">
-        <v>0.00133579970419947</v>
+        <v>0.0009105819368955355</v>
       </c>
       <c r="T18">
-        <v>0.0008997827971749168</v>
+        <v>0.0006143516451383819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H19">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I19">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J19">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N19">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O19">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P19">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q19">
-        <v>1422.726463035175</v>
+        <v>2778.573055165834</v>
       </c>
       <c r="R19">
-        <v>8536.358778211052</v>
+        <v>16671.43833099501</v>
       </c>
       <c r="S19">
-        <v>0.009239869925037055</v>
+        <v>0.008506349062223542</v>
       </c>
       <c r="T19">
-        <v>0.006223894181549203</v>
+        <v>0.005739065677400863</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H20">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I20">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J20">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N20">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O20">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P20">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q20">
-        <v>30.94586663806724</v>
+        <v>104.2033887710008</v>
       </c>
       <c r="R20">
-        <v>123.783466552269</v>
+        <v>416.813555084003</v>
       </c>
       <c r="S20">
-        <v>0.000200977341662208</v>
+        <v>0.000319009211114593</v>
       </c>
       <c r="T20">
-        <v>9.025103293609595E-05</v>
+        <v>0.000143486142009156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H21">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I21">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J21">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N21">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O21">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P21">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q21">
-        <v>1478.626700512354</v>
+        <v>2558.158055398814</v>
       </c>
       <c r="R21">
-        <v>8871.760203074124</v>
+        <v>15348.94833239289</v>
       </c>
       <c r="S21">
-        <v>0.009602912952975056</v>
+        <v>0.007831568558222616</v>
       </c>
       <c r="T21">
-        <v>0.006468436735456019</v>
+        <v>0.005283804601002162</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H22">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I22">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J22">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N22">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O22">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P22">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q22">
-        <v>3290.117504131812</v>
+        <v>7983.455136274077</v>
       </c>
       <c r="R22">
-        <v>29611.05753718631</v>
+        <v>71851.09622646669</v>
       </c>
       <c r="S22">
-        <v>0.02136760548574537</v>
+        <v>0.02444062285333564</v>
       </c>
       <c r="T22">
-        <v>0.02158954344627899</v>
+        <v>0.02473440815663148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H23">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I23">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J23">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>36.600522</v>
       </c>
       <c r="O23">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P23">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q23">
-        <v>3590.092636496958</v>
+        <v>8446.60202907912</v>
       </c>
       <c r="R23">
-        <v>32310.83372847263</v>
+        <v>76019.41826171208</v>
       </c>
       <c r="S23">
-        <v>0.02331578827127298</v>
+        <v>0.02585850500329725</v>
       </c>
       <c r="T23">
-        <v>0.02355796133556941</v>
+        <v>0.02616933377311863</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H24">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I24">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J24">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N24">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O24">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P24">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q24">
-        <v>24833.05609050485</v>
+        <v>78905.30477025645</v>
       </c>
       <c r="R24">
-        <v>223497.5048145437</v>
+        <v>710147.742932308</v>
       </c>
       <c r="S24">
-        <v>0.1612778099508374</v>
+        <v>0.2415614244833575</v>
       </c>
       <c r="T24">
-        <v>0.1629529470289577</v>
+        <v>0.244465081922134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H25">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I25">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J25">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N25">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O25">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P25">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q25">
-        <v>540.1463049706464</v>
+        <v>2959.144850909311</v>
       </c>
       <c r="R25">
-        <v>3240.877829823878</v>
+        <v>17754.86910545587</v>
       </c>
       <c r="S25">
-        <v>0.003507969893081812</v>
+        <v>0.009059153215611142</v>
       </c>
       <c r="T25">
-        <v>0.00236293731229275</v>
+        <v>0.006112031719568207</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H26">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I26">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J26">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N26">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O26">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P26">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q26">
-        <v>25808.76981258033</v>
+        <v>72646.00822226098</v>
       </c>
       <c r="R26">
-        <v>232278.9283132229</v>
+        <v>653814.0740003487</v>
       </c>
       <c r="S26">
-        <v>0.1676145641409703</v>
+        <v>0.2223991565623356</v>
       </c>
       <c r="T26">
-        <v>0.1693555189028876</v>
+        <v>0.2250724764713856</v>
       </c>
     </row>
   </sheetData>
